--- a/resultadoexcel.csv.xlsx
+++ b/resultadoexcel.csv.xlsx
@@ -5,27 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_titulacion\DyClee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A911B8-2ED2-46B5-BD96-BE994958977B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B4E96-F2D5-45DA-9074-F3BB172C5458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{ADC48D1B-88A1-4A14-8105-9CE463CBCFC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADC48D1B-88A1-4A14-8105-9CE463CBCFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Microcluster</t>
   </si>
@@ -34,6 +43,12 @@
   </si>
   <si>
     <t>Linea</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>OJO</t>
   </si>
 </sst>
 </file>
@@ -89,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,15 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26773A52-838E-446F-9D0D-4F539595BD94}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,6 +896,4913 @@
         <v>25655</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>180</v>
+      </c>
+      <c r="C45">
+        <v>26014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>26907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>175</v>
+      </c>
+      <c r="C47">
+        <v>26557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>179</v>
+      </c>
+      <c r="C48">
+        <v>26915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>208</v>
+      </c>
+      <c r="C49">
+        <v>27331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <v>27535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>88</v>
+      </c>
+      <c r="C51">
+        <v>27711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>131</v>
+      </c>
+      <c r="C52">
+        <v>27973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>604</v>
+      </c>
+      <c r="C53">
+        <v>29181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>246</v>
+      </c>
+      <c r="C54">
+        <v>29763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>219</v>
+      </c>
+      <c r="C55">
+        <v>30111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>673</v>
+      </c>
+      <c r="C56">
+        <v>31457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>591</v>
+      </c>
+      <c r="C57">
+        <v>32639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>346</v>
+      </c>
+      <c r="C58">
+        <v>33331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>163</v>
+      </c>
+      <c r="C59">
+        <v>33657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>161</v>
+      </c>
+      <c r="C60">
+        <v>33979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>610</v>
+      </c>
+      <c r="C61">
+        <v>35199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>417</v>
+      </c>
+      <c r="C62">
+        <v>36033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>213</v>
+      </c>
+      <c r="C63">
+        <v>36459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>147</v>
+      </c>
+      <c r="C64">
+        <v>36753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>108</v>
+      </c>
+      <c r="C65">
+        <v>36970</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>339</v>
+      </c>
+      <c r="C66">
+        <v>37647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>484</v>
+      </c>
+      <c r="C67">
+        <v>38615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>124</v>
+      </c>
+      <c r="C68">
+        <v>38865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>172</v>
+      </c>
+      <c r="C69">
+        <v>39207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>39409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>260</v>
+      </c>
+      <c r="C71">
+        <v>39929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>663</v>
+      </c>
+      <c r="C72">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>234</v>
+      </c>
+      <c r="C73">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>123</v>
+      </c>
+      <c r="C75">
+        <v>42271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>124</v>
+      </c>
+      <c r="C76">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>112</v>
+      </c>
+      <c r="C77">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>149</v>
+      </c>
+      <c r="C78">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>112</v>
+      </c>
+      <c r="C79">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>114</v>
+      </c>
+      <c r="C80">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>202</v>
+      </c>
+      <c r="C81">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>133</v>
+      </c>
+      <c r="C82">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>166</v>
+      </c>
+      <c r="C83">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>220</v>
+      </c>
+      <c r="C84">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>156</v>
+      </c>
+      <c r="C85">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>133</v>
+      </c>
+      <c r="C86">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>239</v>
+      </c>
+      <c r="C87">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>46229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>235</v>
+      </c>
+      <c r="C89">
+        <v>46699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>272</v>
+      </c>
+      <c r="C90">
+        <v>47243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>180</v>
+      </c>
+      <c r="C91">
+        <v>47603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>120</v>
+      </c>
+      <c r="C92">
+        <v>47844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>132</v>
+      </c>
+      <c r="C93">
+        <v>48108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>347</v>
+      </c>
+      <c r="C94">
+        <v>48801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>583</v>
+      </c>
+      <c r="C95">
+        <v>49967</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>807</v>
+      </c>
+      <c r="C96">
+        <v>51582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>711</v>
+      </c>
+      <c r="C97">
+        <v>53003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>573</v>
+      </c>
+      <c r="C98">
+        <v>54149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>172</v>
+      </c>
+      <c r="C99">
+        <v>54493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>128</v>
+      </c>
+      <c r="C100">
+        <v>54749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>446</v>
+      </c>
+      <c r="C101">
+        <v>55641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>294</v>
+      </c>
+      <c r="C102">
+        <v>56229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>222</v>
+      </c>
+      <c r="C103">
+        <v>56973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>57074</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>81</v>
+      </c>
+      <c r="C105">
+        <v>57235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>212</v>
+      </c>
+      <c r="C106">
+        <v>57658</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>198</v>
+      </c>
+      <c r="C107">
+        <v>58055</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>159</v>
+      </c>
+      <c r="C108">
+        <v>58373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>316</v>
+      </c>
+      <c r="C109">
+        <v>59005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>458</v>
+      </c>
+      <c r="C110">
+        <v>59921</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>60149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>299</v>
+      </c>
+      <c r="C112">
+        <v>60747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>92</v>
+      </c>
+      <c r="C113">
+        <v>60931</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>167</v>
+      </c>
+      <c r="C114">
+        <v>61265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>174</v>
+      </c>
+      <c r="C115">
+        <v>61613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>173</v>
+      </c>
+      <c r="C116">
+        <v>61956</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>131</v>
+      </c>
+      <c r="C117">
+        <v>62221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>178</v>
+      </c>
+      <c r="C118">
+        <v>62577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1273</v>
+      </c>
+      <c r="C119">
+        <v>65124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>225</v>
+      </c>
+      <c r="C120">
+        <v>65573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>203</v>
+      </c>
+      <c r="C121">
+        <v>65980</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>140</v>
+      </c>
+      <c r="C122">
+        <v>66259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>83</v>
+      </c>
+      <c r="C123">
+        <v>66425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>110</v>
+      </c>
+      <c r="C124">
+        <v>66645</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>80</v>
+      </c>
+      <c r="C125">
+        <v>66806</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>175</v>
+      </c>
+      <c r="C126">
+        <v>67155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>133</v>
+      </c>
+      <c r="C127">
+        <v>67421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>145</v>
+      </c>
+      <c r="C128">
+        <v>67711</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>264</v>
+      </c>
+      <c r="C129">
+        <v>68239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>97</v>
+      </c>
+      <c r="C130">
+        <v>68434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>78</v>
+      </c>
+      <c r="C131">
+        <v>68588</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>189</v>
+      </c>
+      <c r="C132">
+        <v>68967</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>99</v>
+      </c>
+      <c r="C133">
+        <v>69164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>157</v>
+      </c>
+      <c r="C134">
+        <v>69479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>101</v>
+      </c>
+      <c r="C135">
+        <v>69681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>194</v>
+      </c>
+      <c r="C136">
+        <v>70069</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>268</v>
+      </c>
+      <c r="C137">
+        <v>70605</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>178</v>
+      </c>
+      <c r="C138">
+        <v>70961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>273</v>
+      </c>
+      <c r="C139">
+        <v>71507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>215</v>
+      </c>
+      <c r="C140">
+        <v>71940</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>93</v>
+      </c>
+      <c r="C141">
+        <v>72124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>383</v>
+      </c>
+      <c r="C142">
+        <v>72889</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>73173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>103</v>
+      </c>
+      <c r="C144">
+        <v>73379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>199</v>
+      </c>
+      <c r="C145">
+        <v>73777</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>112</v>
+      </c>
+      <c r="C146">
+        <v>74001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>136</v>
+      </c>
+      <c r="C147">
+        <v>74273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>89</v>
+      </c>
+      <c r="C148">
+        <v>74452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>77</v>
+      </c>
+      <c r="C149">
+        <v>74605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>77</v>
+      </c>
+      <c r="C150">
+        <v>74759</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>151</v>
+      </c>
+      <c r="C151">
+        <v>75601</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>455</v>
+      </c>
+      <c r="C152">
+        <v>75972</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>155</v>
+      </c>
+      <c r="C153">
+        <v>76283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>146</v>
+      </c>
+      <c r="C154">
+        <v>76574</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>93</v>
+      </c>
+      <c r="C155">
+        <v>76762</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>185</v>
+      </c>
+      <c r="C156">
+        <v>77129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>149</v>
+      </c>
+      <c r="C157">
+        <v>77427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>146</v>
+      </c>
+      <c r="C158">
+        <v>77722</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>105</v>
+      </c>
+      <c r="C159">
+        <v>77929</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>241</v>
+      </c>
+      <c r="C160">
+        <v>78411</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>77</v>
+      </c>
+      <c r="C161">
+        <v>78567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>164</v>
+      </c>
+      <c r="C162">
+        <v>78894</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>117</v>
+      </c>
+      <c r="C163">
+        <v>79128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>95</v>
+      </c>
+      <c r="C164">
+        <v>79319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>140</v>
+      </c>
+      <c r="C165">
+        <v>79597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>130</v>
+      </c>
+      <c r="C166">
+        <v>79857</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>109</v>
+      </c>
+      <c r="C167">
+        <v>80075</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>138</v>
+      </c>
+      <c r="C168">
+        <v>80351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>112</v>
+      </c>
+      <c r="C169">
+        <v>80575</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>249</v>
+      </c>
+      <c r="C170">
+        <v>81174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>100</v>
+      </c>
+      <c r="C171">
+        <v>81273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>93</v>
+      </c>
+      <c r="C172">
+        <v>81458</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>129</v>
+      </c>
+      <c r="C173">
+        <v>81718</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>85</v>
+      </c>
+      <c r="C174">
+        <v>81888</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>138</v>
+      </c>
+      <c r="C175">
+        <v>82163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>178</v>
+      </c>
+      <c r="C176">
+        <v>82519</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>94</v>
+      </c>
+      <c r="C177">
+        <v>82707</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>199</v>
+      </c>
+      <c r="C178">
+        <v>83105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>109</v>
+      </c>
+      <c r="C179">
+        <v>83324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>93</v>
+      </c>
+      <c r="C180">
+        <v>83509</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>144</v>
+      </c>
+      <c r="C181">
+        <v>83797</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>143</v>
+      </c>
+      <c r="C182">
+        <v>84086</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>85</v>
+      </c>
+      <c r="C183">
+        <v>84257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>121</v>
+      </c>
+      <c r="C184">
+        <v>84495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>105</v>
+      </c>
+      <c r="C185">
+        <v>84705</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1239</v>
+      </c>
+      <c r="C186">
+        <v>87182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>97</v>
+      </c>
+      <c r="C187">
+        <v>87382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>165</v>
+      </c>
+      <c r="C188">
+        <v>87707</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>205</v>
+      </c>
+      <c r="C189">
+        <v>88117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>391</v>
+      </c>
+      <c r="C190">
+        <v>88900</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>161</v>
+      </c>
+      <c r="C191">
+        <v>89221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>106</v>
+      </c>
+      <c r="C192">
+        <v>89443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>93</v>
+      </c>
+      <c r="C193">
+        <v>89616</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>131</v>
+      </c>
+      <c r="C194">
+        <v>89882</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>95</v>
+      </c>
+      <c r="C195">
+        <v>90072</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>138</v>
+      </c>
+      <c r="C196">
+        <v>90347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>101</v>
+      </c>
+      <c r="C197">
+        <v>90550</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>225</v>
+      </c>
+      <c r="C198">
+        <v>90999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>130</v>
+      </c>
+      <c r="C199">
+        <v>91258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>91</v>
+      </c>
+      <c r="C200">
+        <v>91441</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>94</v>
+      </c>
+      <c r="C201">
+        <v>91629</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>82</v>
+      </c>
+      <c r="C202">
+        <v>91797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>111</v>
+      </c>
+      <c r="C203">
+        <v>92015</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>219</v>
+      </c>
+      <c r="C204">
+        <v>92453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>78</v>
+      </c>
+      <c r="C205">
+        <v>92611</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1107</v>
+      </c>
+      <c r="C206">
+        <v>94823</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>81</v>
+      </c>
+      <c r="C207">
+        <v>94985</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>94</v>
+      </c>
+      <c r="C208">
+        <v>95174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>97</v>
+      </c>
+      <c r="C209">
+        <v>95368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>189</v>
+      </c>
+      <c r="C210">
+        <v>95745</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>89</v>
+      </c>
+      <c r="C211">
+        <v>95923</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>127</v>
+      </c>
+      <c r="C212">
+        <v>96179</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>93</v>
+      </c>
+      <c r="C213">
+        <v>96364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>158</v>
+      </c>
+      <c r="C214">
+        <v>96680</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>108</v>
+      </c>
+      <c r="C215">
+        <v>96897</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>146</v>
+      </c>
+      <c r="C216">
+        <v>97187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>161</v>
+      </c>
+      <c r="C217">
+        <v>97512</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>107</v>
+      </c>
+      <c r="C218">
+        <v>97725</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>107</v>
+      </c>
+      <c r="C219">
+        <v>97938</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>97</v>
+      </c>
+      <c r="C220">
+        <v>98131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>201</v>
+      </c>
+      <c r="C221">
+        <v>98534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>80</v>
+      </c>
+      <c r="C222">
+        <v>98693</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>199</v>
+      </c>
+      <c r="C223">
+        <v>99091</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>99</v>
+      </c>
+      <c r="C224">
+        <v>99289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>89</v>
+      </c>
+      <c r="C225">
+        <v>99467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>79</v>
+      </c>
+      <c r="C226">
+        <v>99626</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>122</v>
+      </c>
+      <c r="C227">
+        <v>99869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>108</v>
+      </c>
+      <c r="C228">
+        <v>100087</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>159</v>
+      </c>
+      <c r="C229">
+        <v>100403</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>143</v>
+      </c>
+      <c r="C230">
+        <v>100690</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>175</v>
+      </c>
+      <c r="C231">
+        <v>101039</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>131</v>
+      </c>
+      <c r="C232">
+        <v>101301</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>95</v>
+      </c>
+      <c r="C233">
+        <v>1014941</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>101</v>
+      </c>
+      <c r="C234">
+        <v>101693</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>171</v>
+      </c>
+      <c r="C235">
+        <v>102035</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>91</v>
+      </c>
+      <c r="C236">
+        <v>102217</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>95</v>
+      </c>
+      <c r="C237">
+        <v>102407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>107</v>
+      </c>
+      <c r="C238">
+        <v>102622</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>158</v>
+      </c>
+      <c r="C239">
+        <v>102938</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>89</v>
+      </c>
+      <c r="C240">
+        <v>103115</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>79</v>
+      </c>
+      <c r="C241">
+        <v>103274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>102</v>
+      </c>
+      <c r="C242">
+        <v>103477</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>100</v>
+      </c>
+      <c r="C243">
+        <v>103677</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>121</v>
+      </c>
+      <c r="C244">
+        <v>103919</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>99</v>
+      </c>
+      <c r="C245">
+        <v>104121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>101</v>
+      </c>
+      <c r="C246">
+        <v>104547</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>114</v>
+      </c>
+      <c r="C247">
+        <v>104708</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>81</v>
+      </c>
+      <c r="C248">
+        <v>104708</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>96</v>
+      </c>
+      <c r="C249">
+        <v>104901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>114</v>
+      </c>
+      <c r="C250">
+        <v>105128</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>97</v>
+      </c>
+      <c r="C251">
+        <v>105323</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>79</v>
+      </c>
+      <c r="C252">
+        <v>105481</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>82</v>
+      </c>
+      <c r="C253">
+        <v>105645</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>135</v>
+      </c>
+      <c r="C254">
+        <v>105914</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>99</v>
+      </c>
+      <c r="C255">
+        <v>106113</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>84</v>
+      </c>
+      <c r="C256">
+        <v>106281</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>143</v>
+      </c>
+      <c r="C257">
+        <v>106568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>135</v>
+      </c>
+      <c r="C258">
+        <v>106838</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>174</v>
+      </c>
+      <c r="C259">
+        <v>107185</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>105</v>
+      </c>
+      <c r="C260">
+        <v>107395</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262">
+        <f>SUM(B2:B260)</f>
+        <v>53697</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>14</v>
+      </c>
+      <c r="C264">
+        <v>107423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>40</v>
+      </c>
+      <c r="C265">
+        <v>107503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266">
+        <v>36</v>
+      </c>
+      <c r="C266">
+        <v>107575</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>4</v>
+      </c>
+      <c r="B267">
+        <v>25</v>
+      </c>
+      <c r="C267">
+        <v>107627</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>21</v>
+      </c>
+      <c r="C268">
+        <v>107667</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>6</v>
+      </c>
+      <c r="B269">
+        <v>15</v>
+      </c>
+      <c r="C269">
+        <v>107697</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>7</v>
+      </c>
+      <c r="B270">
+        <v>63</v>
+      </c>
+      <c r="C270">
+        <v>107822</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>9</v>
+      </c>
+      <c r="B272">
+        <v>62</v>
+      </c>
+      <c r="C272">
+        <v>107973</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>10</v>
+      </c>
+      <c r="B273">
+        <v>53</v>
+      </c>
+      <c r="C273">
+        <v>108080</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>11</v>
+      </c>
+      <c r="B274">
+        <v>51</v>
+      </c>
+      <c r="C274">
+        <v>108182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>12</v>
+      </c>
+      <c r="B275">
+        <v>58</v>
+      </c>
+      <c r="C275">
+        <v>108298</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>13</v>
+      </c>
+      <c r="B276">
+        <v>59</v>
+      </c>
+      <c r="C276">
+        <v>108415</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>14</v>
+      </c>
+      <c r="B277">
+        <v>56</v>
+      </c>
+      <c r="C277">
+        <v>108527</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>15</v>
+      </c>
+      <c r="B278">
+        <v>55</v>
+      </c>
+      <c r="C278">
+        <v>108637</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>16</v>
+      </c>
+      <c r="B279">
+        <v>61</v>
+      </c>
+      <c r="C279">
+        <v>108760</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>17</v>
+      </c>
+      <c r="B280">
+        <v>49</v>
+      </c>
+      <c r="C280">
+        <v>108857</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>18</v>
+      </c>
+      <c r="B281">
+        <v>64</v>
+      </c>
+      <c r="C281">
+        <v>108986</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>19</v>
+      </c>
+      <c r="B282">
+        <v>28</v>
+      </c>
+      <c r="C282">
+        <v>109041</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>20</v>
+      </c>
+      <c r="B283">
+        <v>34</v>
+      </c>
+      <c r="C283">
+        <v>109110</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>21</v>
+      </c>
+      <c r="B284">
+        <v>47</v>
+      </c>
+      <c r="C284">
+        <v>109205</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>22</v>
+      </c>
+      <c r="B285">
+        <v>31</v>
+      </c>
+      <c r="C285">
+        <v>109266</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>23</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+      <c r="C286">
+        <v>109371</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>24</v>
+      </c>
+      <c r="B287">
+        <v>73</v>
+      </c>
+      <c r="C287">
+        <v>109511</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>25</v>
+      </c>
+      <c r="B288">
+        <v>49</v>
+      </c>
+      <c r="C288">
+        <v>109610</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>26</v>
+      </c>
+      <c r="B289">
+        <v>45</v>
+      </c>
+      <c r="C289">
+        <v>109700</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>27</v>
+      </c>
+      <c r="B290">
+        <v>42</v>
+      </c>
+      <c r="C290">
+        <v>109790</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>28</v>
+      </c>
+      <c r="B291">
+        <v>23</v>
+      </c>
+      <c r="C291">
+        <v>109829</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>29</v>
+      </c>
+      <c r="B292">
+        <v>62</v>
+      </c>
+      <c r="C292">
+        <v>109953</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>30</v>
+      </c>
+      <c r="B293">
+        <v>72</v>
+      </c>
+      <c r="C293">
+        <v>110098</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>31</v>
+      </c>
+      <c r="B294">
+        <v>63</v>
+      </c>
+      <c r="C294">
+        <v>110223</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>32</v>
+      </c>
+      <c r="B295">
+        <v>46</v>
+      </c>
+      <c r="C295">
+        <v>110316</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>33</v>
+      </c>
+      <c r="B296">
+        <v>76</v>
+      </c>
+      <c r="C296">
+        <v>110467</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>34</v>
+      </c>
+      <c r="B297">
+        <v>56</v>
+      </c>
+      <c r="C297">
+        <v>110579</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>35</v>
+      </c>
+      <c r="B298">
+        <v>63</v>
+      </c>
+      <c r="C298">
+        <v>110706</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>36</v>
+      </c>
+      <c r="B299">
+        <v>49</v>
+      </c>
+      <c r="C299">
+        <v>110804</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>37</v>
+      </c>
+      <c r="B300">
+        <v>64</v>
+      </c>
+      <c r="C300">
+        <v>110931</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>38</v>
+      </c>
+      <c r="B301">
+        <v>50</v>
+      </c>
+      <c r="C301">
+        <v>111034</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>39</v>
+      </c>
+      <c r="B302">
+        <v>62</v>
+      </c>
+      <c r="C302">
+        <v>111155</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>40</v>
+      </c>
+      <c r="B303">
+        <v>62</v>
+      </c>
+      <c r="C303">
+        <v>111278</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>41</v>
+      </c>
+      <c r="B304">
+        <v>43</v>
+      </c>
+      <c r="C304">
+        <v>111365</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>42</v>
+      </c>
+      <c r="B305">
+        <v>19</v>
+      </c>
+      <c r="C305">
+        <v>111402</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>43</v>
+      </c>
+      <c r="B306">
+        <v>65</v>
+      </c>
+      <c r="C306">
+        <v>111534</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>44</v>
+      </c>
+      <c r="B307">
+        <v>46</v>
+      </c>
+      <c r="C307">
+        <v>111626</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>45</v>
+      </c>
+      <c r="B308">
+        <v>63</v>
+      </c>
+      <c r="C308">
+        <v>111751</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>46</v>
+      </c>
+      <c r="B309">
+        <v>37</v>
+      </c>
+      <c r="C309">
+        <v>111825</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>47</v>
+      </c>
+      <c r="B310">
+        <v>30</v>
+      </c>
+      <c r="C310">
+        <v>111889</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>48</v>
+      </c>
+      <c r="B311">
+        <v>62</v>
+      </c>
+      <c r="C311">
+        <v>112009</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>49</v>
+      </c>
+      <c r="B312">
+        <v>76</v>
+      </c>
+      <c r="C312">
+        <v>112161</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>50</v>
+      </c>
+      <c r="B313">
+        <v>63</v>
+      </c>
+      <c r="C313">
+        <v>112288</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>51</v>
+      </c>
+      <c r="B314">
+        <v>32</v>
+      </c>
+      <c r="C314">
+        <v>112352</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>52</v>
+      </c>
+      <c r="B315">
+        <v>76</v>
+      </c>
+      <c r="C315">
+        <v>112503</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>53</v>
+      </c>
+      <c r="B316">
+        <v>36</v>
+      </c>
+      <c r="C316">
+        <v>112575</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>54</v>
+      </c>
+      <c r="B317">
+        <v>70</v>
+      </c>
+      <c r="C317">
+        <v>112718</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>55</v>
+      </c>
+      <c r="B318">
+        <v>65</v>
+      </c>
+      <c r="C318">
+        <v>112846</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>56</v>
+      </c>
+      <c r="B319">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>57</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>58</v>
+      </c>
+      <c r="B321">
+        <v>55</v>
+      </c>
+      <c r="C321">
+        <v>112997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>59</v>
+      </c>
+      <c r="B322">
+        <v>58</v>
+      </c>
+      <c r="C322">
+        <v>113114</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>60</v>
+      </c>
+      <c r="B323">
+        <v>28</v>
+      </c>
+      <c r="C323">
+        <v>113169</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>61</v>
+      </c>
+      <c r="B324">
+        <v>36</v>
+      </c>
+      <c r="C324">
+        <v>113242</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>62</v>
+      </c>
+      <c r="B325">
+        <v>44</v>
+      </c>
+      <c r="C325">
+        <v>113330</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>63</v>
+      </c>
+      <c r="B326">
+        <v>60</v>
+      </c>
+      <c r="C326">
+        <v>113450</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>64</v>
+      </c>
+      <c r="B327">
+        <v>47</v>
+      </c>
+      <c r="C327">
+        <v>113560</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>65</v>
+      </c>
+      <c r="B328">
+        <v>18</v>
+      </c>
+      <c r="C328">
+        <v>113579</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>66</v>
+      </c>
+      <c r="B329">
+        <v>35</v>
+      </c>
+      <c r="C329">
+        <v>113650</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>67</v>
+      </c>
+      <c r="B330">
+        <v>42</v>
+      </c>
+      <c r="C330">
+        <v>113733</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>68</v>
+      </c>
+      <c r="B331">
+        <v>72</v>
+      </c>
+      <c r="C331">
+        <v>113878</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>69</v>
+      </c>
+      <c r="B332">
+        <v>64</v>
+      </c>
+      <c r="C332">
+        <v>114006</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>70</v>
+      </c>
+      <c r="B333">
+        <v>62</v>
+      </c>
+      <c r="C333">
+        <v>114134</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>71</v>
+      </c>
+      <c r="B334">
+        <v>67</v>
+      </c>
+      <c r="C334">
+        <v>114264</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>72</v>
+      </c>
+      <c r="B335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>73</v>
+      </c>
+      <c r="B336">
+        <v>41</v>
+      </c>
+      <c r="C336">
+        <v>114367</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>74</v>
+      </c>
+      <c r="B337">
+        <v>22</v>
+      </c>
+      <c r="C337">
+        <v>114409</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>75</v>
+      </c>
+      <c r="B338">
+        <v>24</v>
+      </c>
+      <c r="C338">
+        <v>114457</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>76</v>
+      </c>
+      <c r="B339">
+        <v>27</v>
+      </c>
+      <c r="C339">
+        <v>115411</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>77</v>
+      </c>
+      <c r="B340">
+        <v>59</v>
+      </c>
+      <c r="C340">
+        <v>114629</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>78</v>
+      </c>
+      <c r="B341">
+        <v>51</v>
+      </c>
+      <c r="C341">
+        <v>114732</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>79</v>
+      </c>
+      <c r="B342">
+        <v>40</v>
+      </c>
+      <c r="C342">
+        <v>114811</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>80</v>
+      </c>
+      <c r="B343">
+        <v>28</v>
+      </c>
+      <c r="C343">
+        <v>114867</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>81</v>
+      </c>
+      <c r="B344">
+        <v>52</v>
+      </c>
+      <c r="C344">
+        <v>114971</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>82</v>
+      </c>
+      <c r="B345">
+        <v>31</v>
+      </c>
+      <c r="C345">
+        <v>115033</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>83</v>
+      </c>
+      <c r="B346">
+        <v>57</v>
+      </c>
+      <c r="C346">
+        <v>115148</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>84</v>
+      </c>
+      <c r="B347">
+        <v>56</v>
+      </c>
+      <c r="C347">
+        <v>115267</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>85</v>
+      </c>
+      <c r="B348">
+        <v>29</v>
+      </c>
+      <c r="C348">
+        <v>115318</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>86</v>
+      </c>
+      <c r="B349">
+        <v>21</v>
+      </c>
+      <c r="C349">
+        <v>115360</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>87</v>
+      </c>
+      <c r="B350">
+        <v>33</v>
+      </c>
+      <c r="C350">
+        <v>115424</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>88</v>
+      </c>
+      <c r="B351">
+        <v>22</v>
+      </c>
+      <c r="C351">
+        <v>115470</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>89</v>
+      </c>
+      <c r="B352">
+        <v>42</v>
+      </c>
+      <c r="C352">
+        <v>115554</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>90</v>
+      </c>
+      <c r="B353">
+        <v>15</v>
+      </c>
+      <c r="C353">
+        <v>115584</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>91</v>
+      </c>
+      <c r="B354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>92</v>
+      </c>
+      <c r="B355">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>93</v>
+      </c>
+      <c r="B356">
+        <v>32</v>
+      </c>
+      <c r="C356">
+        <v>115690</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>94</v>
+      </c>
+      <c r="B357">
+        <v>54</v>
+      </c>
+      <c r="C357">
+        <v>115798</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>95</v>
+      </c>
+      <c r="B358">
+        <v>17</v>
+      </c>
+      <c r="C358">
+        <v>115831</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>96</v>
+      </c>
+      <c r="B359">
+        <v>42</v>
+      </c>
+      <c r="C359">
+        <v>115916</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>97</v>
+      </c>
+      <c r="B360">
+        <v>57</v>
+      </c>
+      <c r="C360">
+        <v>116029</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>98</v>
+      </c>
+      <c r="B361">
+        <v>52</v>
+      </c>
+      <c r="C361">
+        <v>116134</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>99</v>
+      </c>
+      <c r="B362">
+        <v>23</v>
+      </c>
+      <c r="C362">
+        <v>116180</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>10</v>
+      </c>
+      <c r="B363">
+        <v>25</v>
+      </c>
+      <c r="C363">
+        <v>116230</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>101</v>
+      </c>
+      <c r="B364">
+        <v>54</v>
+      </c>
+      <c r="C364">
+        <v>116337</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>102</v>
+      </c>
+      <c r="B365">
+        <v>26</v>
+      </c>
+      <c r="C365">
+        <v>11639</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>103</v>
+      </c>
+      <c r="B366">
+        <v>54</v>
+      </c>
+      <c r="C366">
+        <v>116497</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>104</v>
+      </c>
+      <c r="B367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>105</v>
+      </c>
+      <c r="B368">
+        <v>52</v>
+      </c>
+      <c r="C368">
+        <v>116623</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>106</v>
+      </c>
+      <c r="B369">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>107</v>
+      </c>
+      <c r="B370">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>108</v>
+      </c>
+      <c r="B371">
+        <v>22</v>
+      </c>
+      <c r="C371">
+        <v>116694</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>109</v>
+      </c>
+      <c r="B372">
+        <v>51</v>
+      </c>
+      <c r="C372">
+        <v>116794</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>110</v>
+      </c>
+      <c r="B373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>111</v>
+      </c>
+      <c r="B374">
+        <v>51</v>
+      </c>
+      <c r="C374">
+        <v>116927</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>112</v>
+      </c>
+      <c r="B375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>113</v>
+      </c>
+      <c r="B376">
+        <v>63</v>
+      </c>
+      <c r="C376">
+        <v>117076</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>114</v>
+      </c>
+      <c r="B377">
+        <v>28</v>
+      </c>
+      <c r="C377">
+        <v>117132</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>115</v>
+      </c>
+      <c r="B378">
+        <v>72</v>
+      </c>
+      <c r="C378">
+        <v>117875</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>116</v>
+      </c>
+      <c r="B379">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>117</v>
+      </c>
+      <c r="B380">
+        <v>38</v>
+      </c>
+      <c r="C380">
+        <v>117437</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>118</v>
+      </c>
+      <c r="B381">
+        <v>57</v>
+      </c>
+      <c r="C381">
+        <v>117552</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>119</v>
+      </c>
+      <c r="B382">
+        <v>14</v>
+      </c>
+      <c r="C382">
+        <v>117579</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>120</v>
+      </c>
+      <c r="B383">
+        <v>36</v>
+      </c>
+      <c r="C383">
+        <v>117652</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>121</v>
+      </c>
+      <c r="B384">
+        <v>76</v>
+      </c>
+      <c r="C384">
+        <v>117807</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>122</v>
+      </c>
+      <c r="B385">
+        <v>75</v>
+      </c>
+      <c r="C385">
+        <v>117954</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>123</v>
+      </c>
+      <c r="B386">
+        <v>75</v>
+      </c>
+      <c r="C386">
+        <v>118104</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>124</v>
+      </c>
+      <c r="B387">
+        <v>40</v>
+      </c>
+      <c r="C387">
+        <v>118184</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>125</v>
+      </c>
+      <c r="B388">
+        <v>39</v>
+      </c>
+      <c r="C388">
+        <v>118262</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>126</v>
+      </c>
+      <c r="B389">
+        <v>42</v>
+      </c>
+      <c r="C389">
+        <v>118346</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>127</v>
+      </c>
+      <c r="B390">
+        <v>24</v>
+      </c>
+      <c r="C390">
+        <v>118394</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>128</v>
+      </c>
+      <c r="B391">
+        <v>11</v>
+      </c>
+      <c r="C391">
+        <v>118415</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>129</v>
+      </c>
+      <c r="B392">
+        <v>56</v>
+      </c>
+      <c r="C392">
+        <v>118527</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>130</v>
+      </c>
+      <c r="B393">
+        <v>51</v>
+      </c>
+      <c r="C393">
+        <v>118629</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>131</v>
+      </c>
+      <c r="B394">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>132</v>
+      </c>
+      <c r="B395">
+        <v>55</v>
+      </c>
+      <c r="C395">
+        <v>118767</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>133</v>
+      </c>
+      <c r="B396">
+        <v>47</v>
+      </c>
+      <c r="C396">
+        <v>118861</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>134</v>
+      </c>
+      <c r="B397">
+        <v>8</v>
+      </c>
+      <c r="C397">
+        <v>118878</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>135</v>
+      </c>
+      <c r="B398">
+        <v>75</v>
+      </c>
+      <c r="C398">
+        <v>119028</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>136</v>
+      </c>
+      <c r="B399">
+        <v>12</v>
+      </c>
+      <c r="C399">
+        <v>119051</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>137</v>
+      </c>
+      <c r="B400">
+        <v>42</v>
+      </c>
+      <c r="C400">
+        <v>119135</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>138</v>
+      </c>
+      <c r="B401">
+        <v>70</v>
+      </c>
+      <c r="C401">
+        <v>119275</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>139</v>
+      </c>
+      <c r="B402">
+        <v>48</v>
+      </c>
+      <c r="C402">
+        <v>119371</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>140</v>
+      </c>
+      <c r="B403">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>141</v>
+      </c>
+      <c r="B404">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>142</v>
+      </c>
+      <c r="B405">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>143</v>
+      </c>
+      <c r="B406">
+        <v>30</v>
+      </c>
+      <c r="C406">
+        <v>119648</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>144</v>
+      </c>
+      <c r="B407">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>145</v>
+      </c>
+      <c r="B408">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>146</v>
+      </c>
+      <c r="B409">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>147</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>148</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>149</v>
+      </c>
+      <c r="B412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>150</v>
+      </c>
+      <c r="B413">
+        <v>37</v>
+      </c>
+      <c r="C413">
+        <v>119887</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>151</v>
+      </c>
+      <c r="B414">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>152</v>
+      </c>
+      <c r="B415">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>153</v>
+      </c>
+      <c r="B416">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>154</v>
+      </c>
+      <c r="B417">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>155</v>
+      </c>
+      <c r="B418">
+        <v>6</v>
+      </c>
+      <c r="C418">
+        <v>120088</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>156</v>
+      </c>
+      <c r="B419">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>157</v>
+      </c>
+      <c r="B420">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>158</v>
+      </c>
+      <c r="B421">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>159</v>
+      </c>
+      <c r="B422">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>160</v>
+      </c>
+      <c r="B423">
+        <v>74</v>
+      </c>
+      <c r="C423">
+        <v>120362</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>161</v>
+      </c>
+      <c r="B424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>162</v>
+      </c>
+      <c r="B425">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>163</v>
+      </c>
+      <c r="B426">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>164</v>
+      </c>
+      <c r="B427">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>165</v>
+      </c>
+      <c r="B428">
+        <v>17</v>
+      </c>
+      <c r="C428">
+        <v>120589</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>166</v>
+      </c>
+      <c r="B429">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>167</v>
+      </c>
+      <c r="B430">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>168</v>
+      </c>
+      <c r="B431">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>169</v>
+      </c>
+      <c r="B432">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>170</v>
+      </c>
+      <c r="B433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>171</v>
+      </c>
+      <c r="B434">
+        <v>32</v>
+      </c>
+      <c r="C434">
+        <v>120928</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>172</v>
+      </c>
+      <c r="B435">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>173</v>
+      </c>
+      <c r="B436">
+        <v>51</v>
+      </c>
+      <c r="C436">
+        <v>121088</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>174</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>175</v>
+      </c>
+      <c r="B438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>176</v>
+      </c>
+      <c r="B439">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>177</v>
+      </c>
+      <c r="B440">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>178</v>
+      </c>
+      <c r="B441">
+        <v>7</v>
+      </c>
+      <c r="C441">
+        <v>121169</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>179</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>180</v>
+      </c>
+      <c r="B443">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>181</v>
+      </c>
+      <c r="B444">
+        <v>42</v>
+      </c>
+      <c r="C444">
+        <v>121288</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>182</v>
+      </c>
+      <c r="B445">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>183</v>
+      </c>
+      <c r="B446">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>184</v>
+      </c>
+      <c r="B447">
+        <v>26</v>
+      </c>
+      <c r="C447">
+        <v>121458</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>185</v>
+      </c>
+      <c r="B448">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>186</v>
+      </c>
+      <c r="B449">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>187</v>
+      </c>
+      <c r="B450">
+        <v>59</v>
+      </c>
+      <c r="C450">
+        <v>121678</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>188</v>
+      </c>
+      <c r="B451">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>189</v>
+      </c>
+      <c r="B452">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>190</v>
+      </c>
+      <c r="B453">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>191</v>
+      </c>
+      <c r="B454">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>192</v>
+      </c>
+      <c r="B455">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>193</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>194</v>
+      </c>
+      <c r="B457">
+        <v>13</v>
+      </c>
+      <c r="C457">
+        <v>122021</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>195</v>
+      </c>
+      <c r="B458">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>196</v>
+      </c>
+      <c r="B459">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>197</v>
+      </c>
+      <c r="B460">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>198</v>
+      </c>
+      <c r="B461">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>199</v>
+      </c>
+      <c r="B462">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>200</v>
+      </c>
+      <c r="B463">
+        <v>38</v>
+      </c>
+      <c r="C463">
+        <v>122291</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>201</v>
+      </c>
+      <c r="B464">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>202</v>
+      </c>
+      <c r="B465">
+        <v>44</v>
+      </c>
+      <c r="C465">
+        <v>122455</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>203</v>
+      </c>
+      <c r="B466">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>204</v>
+      </c>
+      <c r="B467">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>205</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>206</v>
+      </c>
+      <c r="B469">
+        <v>63</v>
+      </c>
+      <c r="C469">
+        <v>122671</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>207</v>
+      </c>
+      <c r="B470">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>208</v>
+      </c>
+      <c r="B471">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>209</v>
+      </c>
+      <c r="B472">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>210</v>
+      </c>
+      <c r="B473">
+        <v>24</v>
+      </c>
+      <c r="C473">
+        <v>122987</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>211</v>
+      </c>
+      <c r="B474">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>212</v>
+      </c>
+      <c r="B475">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>213</v>
+      </c>
+      <c r="B476">
+        <v>56</v>
+      </c>
+      <c r="C476">
+        <v>123165</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>214</v>
+      </c>
+      <c r="B477">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>215</v>
+      </c>
+      <c r="B478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>216</v>
+      </c>
+      <c r="B479">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>217</v>
+      </c>
+      <c r="B480">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>218</v>
+      </c>
+      <c r="B481">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>219</v>
+      </c>
+      <c r="B482">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>220</v>
+      </c>
+      <c r="B483">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>221</v>
+      </c>
+      <c r="B484">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>222</v>
+      </c>
+      <c r="B485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>223</v>
+      </c>
+      <c r="B486">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>224</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>123545</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>225</v>
+      </c>
+      <c r="B488">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>226</v>
+      </c>
+      <c r="B489">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>227</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>228</v>
+      </c>
+      <c r="B491">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>229</v>
+      </c>
+      <c r="B492">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>230</v>
+      </c>
+      <c r="B493">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>231</v>
+      </c>
+      <c r="B494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>232</v>
+      </c>
+      <c r="B495">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>233</v>
+      </c>
+      <c r="B496">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>234</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>235</v>
+      </c>
+      <c r="B498">
+        <v>19</v>
+      </c>
+      <c r="C498">
+        <v>123888</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>236</v>
+      </c>
+      <c r="B499">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>237</v>
+      </c>
+      <c r="B500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>238</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>239</v>
+      </c>
+      <c r="B502">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>240</v>
+      </c>
+      <c r="B503">
+        <v>35</v>
+      </c>
+      <c r="C503">
+        <v>123987</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>241</v>
+      </c>
+      <c r="B504">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>242</v>
+      </c>
+      <c r="B505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>243</v>
+      </c>
+      <c r="B506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>244</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>245</v>
+      </c>
+      <c r="B508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>246</v>
+      </c>
+      <c r="B509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>247</v>
+      </c>
+      <c r="B510">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>248</v>
+      </c>
+      <c r="B511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>249</v>
+      </c>
+      <c r="B512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>250</v>
+      </c>
+      <c r="B513">
+        <v>11</v>
+      </c>
+      <c r="C513">
+        <v>124149</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>251</v>
+      </c>
+      <c r="B514">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>252</v>
+      </c>
+      <c r="B515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>253</v>
+      </c>
+      <c r="B516">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>254</v>
+      </c>
+      <c r="B517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>255</v>
+      </c>
+      <c r="B518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>256</v>
+      </c>
+      <c r="B519">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>257</v>
+      </c>
+      <c r="B520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>258</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+      <c r="C521">
+        <v>124277</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B523">
+        <f>SUM(B264:B521)</f>
+        <v>8441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
